--- a/data/trans_bre/P15_5-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_5-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -641,17 +641,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -666,22 +666,22 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,97%</t>
+          <t>-1,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 4,37</t>
+          <t>-4,63; 4,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 6,11</t>
+          <t>-2,68; 5,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 7,52</t>
+          <t>-2,54; 8,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 5,72</t>
+          <t>-7,38; 4,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 6,18</t>
+          <t>-4,02; 5,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 5,82</t>
+          <t>-5,73; 5,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 7,53</t>
+          <t>-3,06; 7,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 14,06</t>
+          <t>-4,18; 16,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 14,65</t>
+          <t>-16,16; 11,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 22,92</t>
+          <t>-12,76; 22,24</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -786,22 +786,22 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>12,99%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 3,07</t>
+          <t>-5,22; 2,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 5,8</t>
+          <t>-1,07; 6,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 6,38</t>
+          <t>-5,7; 6,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 6,68</t>
+          <t>-6,28; 7,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 13,92</t>
+          <t>-4,9; 13,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 3,72</t>
+          <t>-6,12; 3,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 6,67</t>
+          <t>-1,11; 7,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 10,79</t>
+          <t>-8,96; 11,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 17,79</t>
+          <t>-13,88; 19,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 50,16</t>
+          <t>-14,78; 54,6</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,01</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -906,17 +906,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>-4,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,87%</t>
+          <t>-11,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 8,49</t>
+          <t>-8,98; 9,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -0,16</t>
+          <t>-10,99; 3,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 3,86</t>
+          <t>-18,73; 3,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 12,56</t>
+          <t>-13,72; 11,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -959,22 +959,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 10,73</t>
+          <t>-10,38; 12,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,13; -0,3</t>
+          <t>-11,34; 3,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 6,43</t>
+          <t>-29,05; 6,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 32,65</t>
+          <t>-25,2; 28,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1026,17 +1026,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,85%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1054,52 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,49</t>
+          <t>-3,55; 2,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 3,77</t>
+          <t>-1,89; 3,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,52</t>
+          <t>-2,86; 4,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 4,13</t>
+          <t>-4,22; 4,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 5,84</t>
+          <t>-2,94; 5,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,22</t>
+          <t>-4,32; 2,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,38</t>
+          <t>-2,1; 4,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 7,99</t>
+          <t>-4,75; 8,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 10,71</t>
+          <t>-9,35; 10,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 21,37</t>
+          <t>-9,3; 21,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_5-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_5-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,39%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,55%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-1,34%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.3067749275270537</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.252162743680163</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.685380770641887</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.4170683803122299</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.9492309972488899</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.003934223166114669</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.01480539485455107</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.02920378305153828</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.01001617192185035</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.03245898731271267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 4,2</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 5,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 8,67</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,38; 4,57</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 5,81</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,73; 5,63</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 7,3</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 16,34</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-16,16; 11,92</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-12,76; 22,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.629054308310312</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.916246192667628</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.71016279505763</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.93642896986398</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.022185440667523</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.05729999386556443</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.03330682968458012</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.06100586461906162</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1504492351799283</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1276480697602572</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.203582918151239</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.992048107112767</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.585334044667716</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.948554547303867</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>5.80863268133473</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.05626846461198338</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.07345484703215722</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1386186198529606</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1322285959149023</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.2224188993854407</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,16%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,11%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>12,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 2,95</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 6,64</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 6,65</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 7,12</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,9; 13,92</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-6,12; 3,57</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 7,67</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-8,96; 11,8</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-13,88; 19,24</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-14,78; 54,6</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.979232577183653</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.788361034577758</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.6106394576688157</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.569301781322501</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>4.065861214564093</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.0115872536158033</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.03141311617555557</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.01003732190405069</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.01379894840516455</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1298828980315905</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,56</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,89</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,57%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-4,9%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-11,64%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-0,76%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.215829697568669</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.401798873998823</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.720760031119122</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.047370275385465</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.899354818358618</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.06123194645004465</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.01490828675431113</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.08664254148335632</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1359064713644172</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1477850012843815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,98; 9,53</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,99; 3,04</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,73; 3,68</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-13,72; 11,13</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-10,38; 12,58</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-11,34; 3,51</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-29,05; 6,97</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-25,2; 28,12</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.951147142887395</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.590189037458627</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.836681896842355</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.369178028589155</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>13.92166930804734</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.03568816430061503</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.07643489038444057</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1218739246573513</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1958409246316262</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.5459844824978755</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,221 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,86%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,4%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-0,29%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.4683244362628569</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.370079108860627</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.952095126425183</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.5248215920510446</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-0.005701455539930436</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.06798359877568835</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.101546544497488</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.01149817037946383</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 2,26</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 3,73</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 4,55</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 4,0</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 5,98</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 2,95</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 4,39</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 8,11</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-9,35; 10,12</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-9,3; 21,94</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.981850225672281</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.99612354405072</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-18.01492466750427</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-12.62557105273323</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.1037980273481661</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1494869242352921</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2748244701934122</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2412047047510171</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.525352837548851</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.937519069651626</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.707545950210974</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>12.06150423965022</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.1257537125501896</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.009530798713314633</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.08286842054862159</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.3201386828866608</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.7000356732335122</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.8418981468746423</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3414340724563258</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.04028493996123816</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.57419212203862</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.00863038758761122</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.009636793450415846</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.005779980812344959</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.0009596883990451885</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.0529362199693746</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.548922414667767</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.148569653552822</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.407067187051756</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.199595026926183</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-2.944576387020167</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.04323276569640175</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.02402042162483279</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.05569043089090841</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.09271117845523588</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.09298829451954892</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.264752368894307</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.574780333046636</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.129180603599014</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.29451752630893</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>5.980177807813852</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.02949793907932557</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.04193986750136608</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.07224175910095493</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1063080063467088</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2194230115465503</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1101,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
